--- a/Python/src/Financial Python/Spreadsheets/data/charts.xlsx
+++ b/Python/src/Financial Python/Spreadsheets/data/charts.xlsx
@@ -296,7 +296,7 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>2</col>
       <colOff>0</colOff>
       <row>9</row>
       <rowOff>0</rowOff>
